--- a/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/营业利润.xlsx
+++ b/data_year/zb/工业/按行业分外商及港澳台商投资工业企业主要经济指标(2000-2002)/营业利润.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>18.54284</v>
-      </c>
-      <c r="C2" t="n">
-        <v>124.62195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>24.2866</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.05901</v>
-      </c>
-      <c r="F2" t="n">
-        <v>13.26887</v>
-      </c>
-      <c r="G2" t="n">
-        <v>56.192</v>
-      </c>
-      <c r="H2" t="n">
-        <v>30.06109</v>
-      </c>
-      <c r="I2" t="n">
-        <v>33.78348</v>
-      </c>
-      <c r="J2" t="n">
-        <v>19.1698</v>
-      </c>
-      <c r="K2" t="n">
-        <v>30.67485</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1170.57937</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.93166</v>
-      </c>
-      <c r="N2" t="n">
-        <v>11.37932</v>
-      </c>
-      <c r="O2" t="n">
-        <v>38.40754</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.67354</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.15138</v>
-      </c>
-      <c r="R2" t="n">
-        <v>38.12843</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.75464</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="n">
-        <v>0.25942</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.40378</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.16428</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.20179</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>105.98482</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>316.02031</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>72.04131</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>16.10808</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>5.63313</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>39.36113</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>24.90288</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>2.57935</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>20.17716</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>29.52505</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>17.69345</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.70293</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>24.83557</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>12.80735</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>16.33776</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>12.72014</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.03268</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>31.49261</v>
-      </c>
-      <c r="C3" t="n">
-        <v>177.79399</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.55458</v>
-      </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="n">
-        <v>20.30598</v>
-      </c>
-      <c r="G3" t="n">
-        <v>68.61641</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.95008</v>
-      </c>
-      <c r="I3" t="n">
-        <v>37.69645</v>
-      </c>
-      <c r="J3" t="n">
-        <v>23.176</v>
-      </c>
-      <c r="K3" t="n">
-        <v>43.35178</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1349.70129</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7.38156</v>
-      </c>
-      <c r="N3" t="n">
-        <v>12.32738</v>
-      </c>
-      <c r="O3" t="n">
-        <v>47.54623</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3.50465</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.38248</v>
-      </c>
-      <c r="R3" t="n">
-        <v>43.09814</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.60947</v>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="n">
-        <v>10.06939</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.58985</v>
-      </c>
-      <c r="W3" t="n">
-        <v>-0.26206</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.66554</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>126.14512</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>298.97467</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>89.3977</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>16.4189</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2.16379</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>46.2051</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>25.54323</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.54099</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>22.81484</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>37.40604</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>28.80968</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.37572</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>32.11597</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>17.66788</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>23.86132</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>15.28646</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.12337</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>49.48967</v>
-      </c>
-      <c r="C4" t="n">
-        <v>285.19205</v>
-      </c>
-      <c r="D4" t="n">
-        <v>31.37047</v>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="n">
-        <v>19.86719</v>
-      </c>
-      <c r="G4" t="n">
-        <v>117.54313</v>
-      </c>
-      <c r="H4" t="n">
-        <v>10.55458</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46.94711</v>
-      </c>
-      <c r="J4" t="n">
-        <v>25.06635</v>
-      </c>
-      <c r="K4" t="n">
-        <v>48.05631</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1850.11952</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9.44379</v>
-      </c>
-      <c r="N4" t="n">
-        <v>14.93325</v>
-      </c>
-      <c r="O4" t="n">
-        <v>83.49239</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.38078</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.30585</v>
-      </c>
-      <c r="R4" t="n">
-        <v>44.51426</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.56201</v>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="n">
-        <v>23.34397</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.92869</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.49914</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.9951100000000001</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>172.02043</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>348.88461</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>110.69525</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>23.10951</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>21.20208</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>53.76593</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>34.01421</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.79709</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>45.92932</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>53.51726</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>29.46789</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.65263</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>44.14519</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>27.55195</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>36.41878</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>22.54864</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.07013</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
